--- a/reboot_report.xlsx
+++ b/reboot_report.xlsx
@@ -18,6 +18,12 @@
     <sheet name="Post-Engagement TOP&amp;WORST3" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Stories - Impression TOP&amp;WORST3" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Mention Ranking" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Competitor Comparison" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Competitor Engagemen TOP&amp;WORST3" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Hashtag Analysis" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Ranked in Hashtag" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Word Description" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Sheet Description" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -107,8 +113,17 @@
       <color rgb="00FFFFFF"/>
       <sz val="12"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <color rgb="00000000"/>
+      <sz val="12"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -148,6 +163,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFCC99"/>
       </patternFill>
     </fill>
   </fills>
@@ -290,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -420,6 +440,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1751,6 +1793,362 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Number of Followers</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Competitor Comparison'!D2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Competitor Comparison'!$A$3:$A$33</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Competitor Comparison'!$D$3:$D$33</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Number of Posts</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Competitor Comparison'!C2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Competitor Comparison'!$A$3:$A$33</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Competitor Comparison'!$C$3:$C$33</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Number of Post on Date</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Competitor Comparison'!K27</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Competitor Comparison'!$J$28:$J$34</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Competitor Comparison'!$K$28:$K$34</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Changes on Number of Ranked in &amp; Followers</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Hashtag Analysis'!D2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Hashtag Analysis'!$A$3:$A$33</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Hashtag Analysis'!$D$3:$D$33</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
@@ -2438,6 +2836,188 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8400960" cy="4031999"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -4405,6 +4985,77 @@
 </wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8640000" cy="2710800"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8640000" cy="2520000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>13</col>
+      <colOff>0</colOff>
+      <row>24</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5184000" cy="2340000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4726,7 +5377,7 @@
     <row r="15" ht="25" customHeight="1">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Aug/25/2021</t>
+          <t>Aug/29/2021</t>
         </is>
       </c>
     </row>
@@ -5150,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="43" t="n">
-        <v>1042</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
@@ -5168,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="43" t="n">
-        <v>1074</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
@@ -5186,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="43" t="n">
-        <v>1007</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
@@ -5204,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="43" t="n">
-        <v>1131</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
@@ -5222,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="43" t="n">
-        <v>1042</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
@@ -5240,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="43" t="n">
-        <v>1172</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
@@ -5258,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="43" t="n">
-        <v>1105</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
@@ -5276,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="43" t="n">
-        <v>1038</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
@@ -5294,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="43" t="n">
-        <v>1177</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
@@ -5312,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="43" t="n">
-        <v>1166</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
@@ -5330,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="43" t="n">
-        <v>1071</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
@@ -5348,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="43" t="n">
-        <v>1199</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
@@ -5366,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="43" t="n">
-        <v>1122</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1">
@@ -5384,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="43" t="n">
-        <v>1077</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1">
@@ -5402,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="43" t="n">
-        <v>1146</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1">
@@ -5420,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="43" t="n">
-        <v>1107</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1">
@@ -5438,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="43" t="n">
-        <v>1184</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1">
@@ -5456,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="43" t="n">
-        <v>1073</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1">
@@ -5474,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="43" t="n">
-        <v>1075</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1">
@@ -5492,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="43" t="n">
-        <v>1149</v>
+        <v>1092</v>
       </c>
       <c r="F21" s="56" t="inlineStr">
         <is>
@@ -5515,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="43" t="n">
-        <v>1170</v>
+        <v>1011</v>
       </c>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="57" t="inlineStr">
@@ -5552,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="43" t="n">
-        <v>1142</v>
+        <v>1108</v>
       </c>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="7" t="n"/>
@@ -5589,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="43" t="n">
-        <v>1108</v>
+        <v>1131</v>
       </c>
       <c r="F24" s="58" t="inlineStr">
         <is>
@@ -5620,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="43" t="n">
-        <v>1162</v>
+        <v>1151</v>
       </c>
       <c r="F25" s="58" t="inlineStr">
         <is>
@@ -5651,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="43" t="n">
-        <v>1033</v>
+        <v>1006</v>
       </c>
       <c r="F26" s="58" t="inlineStr">
         <is>
@@ -5682,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="43" t="n">
-        <v>1014</v>
+        <v>1139</v>
       </c>
       <c r="F27" s="58" t="inlineStr">
         <is>
@@ -5713,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="43" t="n">
-        <v>1079</v>
+        <v>1180</v>
       </c>
       <c r="F28" s="58" t="inlineStr">
         <is>
@@ -5744,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="43" t="n">
-        <v>1097</v>
+        <v>1042</v>
       </c>
       <c r="F29" s="58" t="inlineStr">
         <is>
@@ -5775,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="43" t="n">
-        <v>1066</v>
+        <v>1156</v>
       </c>
       <c r="F30" s="58" t="inlineStr">
         <is>
@@ -5806,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="43" t="n">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="F31" s="58" t="inlineStr">
         <is>
@@ -5837,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="43" t="n">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="F32" s="58" t="inlineStr">
         <is>
@@ -5953,6 +6604,3003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S41"/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="9" max="9"/>
+    <col width="13" customWidth="1" min="10" max="10"/>
+    <col width="13" customWidth="1" min="11" max="11"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="13" customWidth="1" min="14" max="14"/>
+    <col width="13" customWidth="1" min="15" max="15"/>
+    <col width="13" customWidth="1" min="16" max="16"/>
+    <col width="13" customWidth="1" min="17" max="17"/>
+    <col width="13" customWidth="1" min="18" max="18"/>
+    <col width="13" customWidth="1" min="19" max="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20" customHeight="1">
+      <c r="A1" s="7" t="n"/>
+      <c r="B1" s="7" t="n"/>
+      <c r="C1" s="59" t="inlineStr">
+        <is>
+          <t>airmega_coway</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="n"/>
+      <c r="E1" s="7" t="n"/>
+      <c r="F1" s="60" t="inlineStr">
+        <is>
+          <t>iwai_kampo</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="n"/>
+      <c r="H1" s="7" t="n"/>
+    </row>
+    <row r="2" ht="27" customHeight="1">
+      <c r="A2" s="7" t="n"/>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="59" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
+      <c r="D2" s="59" t="inlineStr">
+        <is>
+          <t>Follower</t>
+        </is>
+      </c>
+      <c r="E2" s="59" t="inlineStr">
+        <is>
+          <t>Follower
+(+/-)</t>
+        </is>
+      </c>
+      <c r="F2" s="60" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
+      <c r="G2" s="60" t="inlineStr">
+        <is>
+          <t>Follower</t>
+        </is>
+      </c>
+      <c r="H2" s="60" t="inlineStr">
+        <is>
+          <t>Follower
+(+/-)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="43" t="inlineStr">
+        <is>
+          <t>1 日</t>
+        </is>
+      </c>
+      <c r="B3" s="43" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C3" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="43" t="n">
+        <v>1008</v>
+      </c>
+      <c r="E3" s="43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="43" t="n">
+        <v>1125</v>
+      </c>
+      <c r="H3" s="43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="43" t="inlineStr">
+        <is>
+          <t>2 日</t>
+        </is>
+      </c>
+      <c r="B4" s="43" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C4" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="43" t="n">
+        <v>1093</v>
+      </c>
+      <c r="E4" s="43" t="n">
+        <v>85</v>
+      </c>
+      <c r="F4" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="43" t="n">
+        <v>1076</v>
+      </c>
+      <c r="H4" s="43" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="43" t="inlineStr">
+        <is>
+          <t>3 日</t>
+        </is>
+      </c>
+      <c r="B5" s="43" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C5" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="43" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E5" s="43" t="n">
+        <v>-43</v>
+      </c>
+      <c r="F5" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="43" t="n">
+        <v>1021</v>
+      </c>
+      <c r="H5" s="43" t="n">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="43" t="inlineStr">
+        <is>
+          <t>4 日</t>
+        </is>
+      </c>
+      <c r="B6" s="43" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="C6" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="43" t="n">
+        <v>1061</v>
+      </c>
+      <c r="E6" s="43" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="43" t="n">
+        <v>1071</v>
+      </c>
+      <c r="H6" s="43" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="43" t="inlineStr">
+        <is>
+          <t>5 日</t>
+        </is>
+      </c>
+      <c r="B7" s="43" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="C7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="43" t="n">
+        <v>1074</v>
+      </c>
+      <c r="E7" s="43" t="n">
+        <v>13</v>
+      </c>
+      <c r="F7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="43" t="n">
+        <v>1146</v>
+      </c>
+      <c r="H7" s="43" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="43" t="inlineStr">
+        <is>
+          <t>6 日</t>
+        </is>
+      </c>
+      <c r="B8" s="43" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C8" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="43" t="n">
+        <v>1030</v>
+      </c>
+      <c r="E8" s="43" t="n">
+        <v>-44</v>
+      </c>
+      <c r="F8" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="43" t="n">
+        <v>1193</v>
+      </c>
+      <c r="H8" s="43" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="43" t="inlineStr">
+        <is>
+          <t>7 日</t>
+        </is>
+      </c>
+      <c r="B9" s="43" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C9" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="43" t="n">
+        <v>1089</v>
+      </c>
+      <c r="E9" s="43" t="n">
+        <v>59</v>
+      </c>
+      <c r="F9" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="43" t="n">
+        <v>1095</v>
+      </c>
+      <c r="H9" s="43" t="n">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="43" t="inlineStr">
+        <is>
+          <t>8 日</t>
+        </is>
+      </c>
+      <c r="B10" s="43" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C10" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="43" t="n">
+        <v>1011</v>
+      </c>
+      <c r="E10" s="43" t="n">
+        <v>-78</v>
+      </c>
+      <c r="F10" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="43" t="n">
+        <v>1073</v>
+      </c>
+      <c r="H10" s="43" t="n">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="43" t="inlineStr">
+        <is>
+          <t>9 日</t>
+        </is>
+      </c>
+      <c r="B11" s="43" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C11" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="43" t="n">
+        <v>1073</v>
+      </c>
+      <c r="E11" s="43" t="n">
+        <v>62</v>
+      </c>
+      <c r="F11" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="43" t="n">
+        <v>1005</v>
+      </c>
+      <c r="H11" s="43" t="n">
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="43" t="inlineStr">
+        <is>
+          <t>10 日</t>
+        </is>
+      </c>
+      <c r="B12" s="43" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C12" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="43" t="n">
+        <v>1124</v>
+      </c>
+      <c r="E12" s="43" t="n">
+        <v>51</v>
+      </c>
+      <c r="F12" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="43" t="n">
+        <v>1077</v>
+      </c>
+      <c r="H12" s="43" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="43" t="inlineStr">
+        <is>
+          <t>11 日</t>
+        </is>
+      </c>
+      <c r="B13" s="43" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="C13" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" s="43" t="n">
+        <v>1063</v>
+      </c>
+      <c r="E13" s="43" t="n">
+        <v>-61</v>
+      </c>
+      <c r="F13" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="43" t="n">
+        <v>1062</v>
+      </c>
+      <c r="H13" s="43" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="43" t="inlineStr">
+        <is>
+          <t>12 日</t>
+        </is>
+      </c>
+      <c r="B14" s="43" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="C14" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" s="43" t="n">
+        <v>1090</v>
+      </c>
+      <c r="E14" s="43" t="n">
+        <v>27</v>
+      </c>
+      <c r="F14" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="43" t="n">
+        <v>1053</v>
+      </c>
+      <c r="H14" s="43" t="n">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="43" t="inlineStr">
+        <is>
+          <t>13 日</t>
+        </is>
+      </c>
+      <c r="B15" s="43" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C15" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="43" t="n">
+        <v>1086</v>
+      </c>
+      <c r="E15" s="43" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F15" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="43" t="n">
+        <v>1049</v>
+      </c>
+      <c r="H15" s="43" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="43" t="inlineStr">
+        <is>
+          <t>14 日</t>
+        </is>
+      </c>
+      <c r="B16" s="43" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C16" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="43" t="n">
+        <v>1008</v>
+      </c>
+      <c r="E16" s="43" t="n">
+        <v>-78</v>
+      </c>
+      <c r="F16" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="43" t="n">
+        <v>1158</v>
+      </c>
+      <c r="H16" s="43" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="43" t="inlineStr">
+        <is>
+          <t>15 日</t>
+        </is>
+      </c>
+      <c r="B17" s="43" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C17" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="43" t="n">
+        <v>1064</v>
+      </c>
+      <c r="E17" s="43" t="n">
+        <v>56</v>
+      </c>
+      <c r="F17" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="43" t="n">
+        <v>1146</v>
+      </c>
+      <c r="H17" s="43" t="n">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="43" t="inlineStr">
+        <is>
+          <t>16 日</t>
+        </is>
+      </c>
+      <c r="B18" s="43" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C18" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="43" t="n">
+        <v>1098</v>
+      </c>
+      <c r="E18" s="43" t="n">
+        <v>34</v>
+      </c>
+      <c r="F18" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="43" t="n">
+        <v>1132</v>
+      </c>
+      <c r="H18" s="43" t="n">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="43" t="inlineStr">
+        <is>
+          <t>17 日</t>
+        </is>
+      </c>
+      <c r="B19" s="43" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C19" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="43" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E19" s="43" t="n">
+        <v>-96</v>
+      </c>
+      <c r="F19" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" s="43" t="n">
+        <v>1172</v>
+      </c>
+      <c r="H19" s="43" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="43" t="inlineStr">
+        <is>
+          <t>18 日</t>
+        </is>
+      </c>
+      <c r="B20" s="43" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="C20" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="43" t="n">
+        <v>1057</v>
+      </c>
+      <c r="E20" s="43" t="n">
+        <v>55</v>
+      </c>
+      <c r="F20" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="43" t="n">
+        <v>1074</v>
+      </c>
+      <c r="H20" s="43" t="n">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="43" t="inlineStr">
+        <is>
+          <t>19 日</t>
+        </is>
+      </c>
+      <c r="B21" s="43" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="C21" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="43" t="n">
+        <v>1158</v>
+      </c>
+      <c r="E21" s="43" t="n">
+        <v>101</v>
+      </c>
+      <c r="F21" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" s="43" t="n">
+        <v>1090</v>
+      </c>
+      <c r="H21" s="43" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="43" t="inlineStr">
+        <is>
+          <t>20 日</t>
+        </is>
+      </c>
+      <c r="B22" s="43" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C22" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="43" t="n">
+        <v>1174</v>
+      </c>
+      <c r="E22" s="43" t="n">
+        <v>16</v>
+      </c>
+      <c r="F22" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" s="43" t="n">
+        <v>1044</v>
+      </c>
+      <c r="H22" s="43" t="n">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="43" t="inlineStr">
+        <is>
+          <t>21 日</t>
+        </is>
+      </c>
+      <c r="B23" s="43" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C23" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="43" t="n">
+        <v>1170</v>
+      </c>
+      <c r="E23" s="43" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F23" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" s="43" t="n">
+        <v>1056</v>
+      </c>
+      <c r="H23" s="43" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="43" t="inlineStr">
+        <is>
+          <t>22 日</t>
+        </is>
+      </c>
+      <c r="B24" s="43" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C24" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" s="43" t="n">
+        <v>1115</v>
+      </c>
+      <c r="E24" s="43" t="n">
+        <v>-55</v>
+      </c>
+      <c r="F24" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="43" t="n">
+        <v>1105</v>
+      </c>
+      <c r="H24" s="43" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="43" t="inlineStr">
+        <is>
+          <t>23 日</t>
+        </is>
+      </c>
+      <c r="B25" s="43" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C25" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="43" t="n">
+        <v>1158</v>
+      </c>
+      <c r="E25" s="43" t="n">
+        <v>43</v>
+      </c>
+      <c r="F25" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" s="43" t="n">
+        <v>1184</v>
+      </c>
+      <c r="H25" s="43" t="n">
+        <v>79</v>
+      </c>
+      <c r="J25" s="56" t="inlineStr">
+        <is>
+          <t>Number of Post on Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="A26" s="43" t="inlineStr">
+        <is>
+          <t>24 日</t>
+        </is>
+      </c>
+      <c r="B26" s="43" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C26" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="43" t="n">
+        <v>1030</v>
+      </c>
+      <c r="E26" s="43" t="n">
+        <v>-128</v>
+      </c>
+      <c r="F26" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="43" t="n">
+        <v>1166</v>
+      </c>
+      <c r="H26" s="43" t="n">
+        <v>-18</v>
+      </c>
+      <c r="J26" s="7" t="n"/>
+      <c r="K26" s="61" t="inlineStr">
+        <is>
+          <t>airmega_coway</t>
+        </is>
+      </c>
+      <c r="L26" s="57" t="inlineStr">
+        <is>
+          <t>iwai_kampo</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="43" t="inlineStr">
+        <is>
+          <t>25 日</t>
+        </is>
+      </c>
+      <c r="B27" s="43" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="C27" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="43" t="n">
+        <v>1115</v>
+      </c>
+      <c r="E27" s="43" t="n">
+        <v>85</v>
+      </c>
+      <c r="F27" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="43" t="n">
+        <v>1121</v>
+      </c>
+      <c r="H27" s="43" t="n">
+        <v>-45</v>
+      </c>
+      <c r="J27" s="7" t="n"/>
+      <c r="K27" s="7" t="n"/>
+      <c r="L27" s="7" t="n"/>
+    </row>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="A28" s="43" t="inlineStr">
+        <is>
+          <t>26 日</t>
+        </is>
+      </c>
+      <c r="B28" s="43" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="C28" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="43" t="n">
+        <v>1029</v>
+      </c>
+      <c r="E28" s="43" t="n">
+        <v>-86</v>
+      </c>
+      <c r="F28" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="43" t="n">
+        <v>1059</v>
+      </c>
+      <c r="H28" s="43" t="n">
+        <v>-62</v>
+      </c>
+      <c r="J28" s="58" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="K28" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="A29" s="43" t="inlineStr">
+        <is>
+          <t>27 日</t>
+        </is>
+      </c>
+      <c r="B29" s="43" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C29" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="43" t="n">
+        <v>1116</v>
+      </c>
+      <c r="E29" s="43" t="n">
+        <v>87</v>
+      </c>
+      <c r="F29" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="43" t="n">
+        <v>1089</v>
+      </c>
+      <c r="H29" s="43" t="n">
+        <v>30</v>
+      </c>
+      <c r="J29" s="58" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="K29" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="L29" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="A30" s="43" t="inlineStr">
+        <is>
+          <t>28 日</t>
+        </is>
+      </c>
+      <c r="B30" s="43" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C30" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="43" t="n">
+        <v>1029</v>
+      </c>
+      <c r="E30" s="43" t="n">
+        <v>-87</v>
+      </c>
+      <c r="F30" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" s="43" t="n">
+        <v>1053</v>
+      </c>
+      <c r="H30" s="43" t="n">
+        <v>-36</v>
+      </c>
+      <c r="J30" s="58" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="K30" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="L30" s="7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" s="43" t="inlineStr">
+        <is>
+          <t>29 日</t>
+        </is>
+      </c>
+      <c r="B31" s="43" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C31" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="43" t="n">
+        <v>1104</v>
+      </c>
+      <c r="E31" s="43" t="n">
+        <v>75</v>
+      </c>
+      <c r="F31" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" s="43" t="n">
+        <v>1072</v>
+      </c>
+      <c r="H31" s="43" t="n">
+        <v>19</v>
+      </c>
+      <c r="J31" s="58" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="K31" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L31" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" ht="18.75" customHeight="1">
+      <c r="A32" s="43" t="inlineStr">
+        <is>
+          <t>30 日</t>
+        </is>
+      </c>
+      <c r="B32" s="43" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C32" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" s="43" t="n">
+        <v>1179</v>
+      </c>
+      <c r="E32" s="43" t="n">
+        <v>75</v>
+      </c>
+      <c r="F32" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="43" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H32" s="43" t="n">
+        <v>43</v>
+      </c>
+      <c r="J32" s="58" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="K32" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L32" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="A33" s="43" t="inlineStr">
+        <is>
+          <t>31 日</t>
+        </is>
+      </c>
+      <c r="B33" s="43" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C33" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="43" t="n">
+        <v>1119</v>
+      </c>
+      <c r="E33" s="43" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F33" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" s="43" t="n">
+        <v>1055</v>
+      </c>
+      <c r="H33" s="43" t="n">
+        <v>-60</v>
+      </c>
+      <c r="J33" s="58" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="K33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" ht="18.75" customHeight="1">
+      <c r="A34" s="7" t="n"/>
+      <c r="B34" s="7" t="n"/>
+      <c r="C34" s="7" t="n"/>
+      <c r="D34" s="7" t="n"/>
+      <c r="E34" s="7" t="n"/>
+      <c r="F34" s="7" t="n"/>
+      <c r="G34" s="7" t="n"/>
+      <c r="H34" s="7" t="n"/>
+      <c r="J34" s="58" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="K34" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="L34" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" ht="18.75" customHeight="1"/>
+    <row r="36" ht="18.75" customHeight="1">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>※1 The follower of competitor is available since the day you connected your account to Reposta.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="18.75" customHeight="1">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>※2 The follower of account is available since the day you connected your account to Reposta.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="18.75" customHeight="1"/>
+    <row r="39" ht="18.75" customHeight="1">
+      <c r="A39" s="30" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="C39" s="14" t="n"/>
+      <c r="D39" s="15" t="n"/>
+      <c r="E39" s="15" t="n"/>
+      <c r="F39" s="15" t="n"/>
+      <c r="G39" s="15" t="n"/>
+      <c r="H39" s="15" t="n"/>
+      <c r="I39" s="15" t="n"/>
+      <c r="J39" s="15" t="n"/>
+      <c r="K39" s="15" t="n"/>
+      <c r="L39" s="15" t="n"/>
+      <c r="M39" s="15" t="n"/>
+      <c r="N39" s="15" t="n"/>
+      <c r="O39" s="15" t="n"/>
+      <c r="P39" s="15" t="n"/>
+      <c r="Q39" s="15" t="n"/>
+      <c r="R39" s="15" t="n"/>
+      <c r="S39" s="16" t="n"/>
+    </row>
+    <row r="40" ht="18.75" customHeight="1">
+      <c r="C40" s="17" t="n"/>
+      <c r="S40" s="18" t="n"/>
+    </row>
+    <row r="41" ht="18.75" customHeight="1">
+      <c r="C41" s="25" t="n"/>
+      <c r="D41" s="26" t="n"/>
+      <c r="E41" s="26" t="n"/>
+      <c r="F41" s="26" t="n"/>
+      <c r="G41" s="26" t="n"/>
+      <c r="H41" s="26" t="n"/>
+      <c r="I41" s="26" t="n"/>
+      <c r="J41" s="26" t="n"/>
+      <c r="K41" s="26" t="n"/>
+      <c r="L41" s="26" t="n"/>
+      <c r="M41" s="26" t="n"/>
+      <c r="N41" s="26" t="n"/>
+      <c r="O41" s="26" t="n"/>
+      <c r="P41" s="26" t="n"/>
+      <c r="Q41" s="26" t="n"/>
+      <c r="R41" s="26" t="n"/>
+      <c r="S41" s="27" t="n"/>
+    </row>
+    <row r="42" ht="18.75" customHeight="1"/>
+    <row r="43" ht="18.75" customHeight="1"/>
+    <row r="44" ht="18.75" customHeight="1"/>
+    <row r="45" ht="18.75" customHeight="1"/>
+    <row r="46" ht="18.75" customHeight="1"/>
+    <row r="47" ht="18.75" customHeight="1"/>
+    <row r="48" ht="18.75" customHeight="1"/>
+    <row r="49" ht="18.75" customHeight="1"/>
+    <row r="50" ht="18.75" customHeight="1"/>
+    <row r="51" ht="18.75" customHeight="1"/>
+    <row r="52" ht="18.75" customHeight="1"/>
+    <row r="53" ht="18.75" customHeight="1"/>
+    <row r="54" ht="18.75" customHeight="1"/>
+    <row r="55" ht="18.75" customHeight="1"/>
+    <row r="56" ht="18.75" customHeight="1"/>
+    <row r="57" ht="18.75" customHeight="1"/>
+    <row r="58" ht="18.75" customHeight="1"/>
+    <row r="59" ht="18.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="A39:B41"/>
+    <mergeCell ref="C39:S41"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="14.3" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1"/>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="62" t="inlineStr"/>
+      <c r="B2" s="62" t="inlineStr">
+        <is>
+          <t>Posted Date</t>
+        </is>
+      </c>
+      <c r="C2" s="62" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D2" s="62" t="inlineStr">
+        <is>
+          <t>Thumbnail</t>
+        </is>
+      </c>
+      <c r="E2" s="62" t="inlineStr">
+        <is>
+          <t>Posts Contents</t>
+        </is>
+      </c>
+      <c r="F2" s="62" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="G2" s="7" t="n"/>
+      <c r="H2" s="7" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="n"/>
+      <c r="B3" s="7" t="n"/>
+      <c r="C3" s="7" t="n"/>
+      <c r="D3" s="7" t="n"/>
+      <c r="E3" s="7" t="n"/>
+      <c r="F3" s="62" t="inlineStr">
+        <is>
+          <t>Likes</t>
+        </is>
+      </c>
+      <c r="G3" s="62" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="H3" s="62" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="47" t="inlineStr">
+        <is>
+          <t>TOP▲</t>
+        </is>
+      </c>
+      <c r="B4" s="48" t="n"/>
+      <c r="C4" s="48" t="n"/>
+      <c r="D4" s="48" t="n"/>
+      <c r="E4" s="48" t="n"/>
+      <c r="F4" s="48" t="n"/>
+      <c r="G4" s="48" t="n"/>
+      <c r="H4" s="48" t="n"/>
+    </row>
+    <row r="5" ht="70" customHeight="1">
+      <c r="A5" s="49" t="inlineStr">
+        <is>
+          <t>No.1</t>
+        </is>
+      </c>
+      <c r="B5" s="42" t="inlineStr">
+        <is>
+          <t>2021/05/04 18:44:09</t>
+        </is>
+      </c>
+      <c r="C5" s="42" t="inlineStr">
+        <is>
+          <t>Carousel</t>
+        </is>
+      </c>
+      <c r="D5" s="42" t="n"/>
+      <c r="E5" s="42" t="inlineStr">
+        <is>
+          <t>Styles are used to change the look of your data while displayed on screen. They are also used to determine the formatting for numbers.</t>
+        </is>
+      </c>
+      <c r="F5" s="42" t="n">
+        <v>23</v>
+      </c>
+      <c r="G5" s="42" t="n">
+        <v>34</v>
+      </c>
+      <c r="H5" s="42" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" ht="70" customHeight="1">
+      <c r="A6" s="49" t="inlineStr">
+        <is>
+          <t>No.2</t>
+        </is>
+      </c>
+      <c r="B6" s="42" t="inlineStr">
+        <is>
+          <t>2021/05/04 18:44:09</t>
+        </is>
+      </c>
+      <c r="C6" s="42" t="inlineStr">
+        <is>
+          <t>Carousel</t>
+        </is>
+      </c>
+      <c r="D6" s="42" t="n"/>
+      <c r="E6" s="42" t="inlineStr">
+        <is>
+          <t>Styles are used to change the look of your data while displayed on screen. They are also used to determine the formatting for numbers.</t>
+        </is>
+      </c>
+      <c r="F6" s="42" t="n">
+        <v>23</v>
+      </c>
+      <c r="G6" s="42" t="n">
+        <v>34</v>
+      </c>
+      <c r="H6" s="42" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" ht="70" customHeight="1">
+      <c r="A7" s="49" t="inlineStr">
+        <is>
+          <t>No.3</t>
+        </is>
+      </c>
+      <c r="B7" s="42" t="inlineStr">
+        <is>
+          <t>2021/05/04 18:44:09</t>
+        </is>
+      </c>
+      <c r="C7" s="42" t="inlineStr">
+        <is>
+          <t>Carousel</t>
+        </is>
+      </c>
+      <c r="D7" s="42" t="n"/>
+      <c r="E7" s="42" t="inlineStr">
+        <is>
+          <t>Styles are used to change the look of your data while displayed on screen. They are also used to determine the formatting for numbers.</t>
+        </is>
+      </c>
+      <c r="F7" s="42" t="n">
+        <v>23</v>
+      </c>
+      <c r="G7" s="42" t="n">
+        <v>34</v>
+      </c>
+      <c r="H7" s="42" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="63" t="inlineStr">
+        <is>
+          <t>No.1</t>
+        </is>
+      </c>
+      <c r="B8" s="51" t="n"/>
+      <c r="C8" s="51" t="n"/>
+      <c r="D8" s="51" t="n"/>
+      <c r="E8" s="51" t="n"/>
+      <c r="F8" s="51" t="n"/>
+      <c r="G8" s="51" t="n"/>
+      <c r="H8" s="51" t="n"/>
+    </row>
+    <row r="9" ht="70" customHeight="1">
+      <c r="A9" s="52" t="inlineStr">
+        <is>
+          <t>No.2</t>
+        </is>
+      </c>
+      <c r="B9" s="42" t="inlineStr">
+        <is>
+          <t>2021/05/04 18:44:09</t>
+        </is>
+      </c>
+      <c r="C9" s="42" t="inlineStr">
+        <is>
+          <t>Carousel</t>
+        </is>
+      </c>
+      <c r="D9" s="42" t="n"/>
+      <c r="E9" s="42" t="inlineStr">
+        <is>
+          <t>Styles are used to change the look of your data while displayed on screen. They are also used to determine the formatting for numbers.</t>
+        </is>
+      </c>
+      <c r="F9" s="42" t="n">
+        <v>23</v>
+      </c>
+      <c r="G9" s="42" t="n">
+        <v>34</v>
+      </c>
+      <c r="H9" s="42" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" ht="70" customHeight="1">
+      <c r="A10" s="52" t="inlineStr">
+        <is>
+          <t>No.3</t>
+        </is>
+      </c>
+      <c r="B10" s="42" t="inlineStr">
+        <is>
+          <t>2021/05/04 18:44:09</t>
+        </is>
+      </c>
+      <c r="C10" s="42" t="inlineStr">
+        <is>
+          <t>Carousel</t>
+        </is>
+      </c>
+      <c r="D10" s="42" t="n"/>
+      <c r="E10" s="42" t="inlineStr">
+        <is>
+          <t>Styles are used to change the look of your data while displayed on screen. They are also used to determine the formatting for numbers.</t>
+        </is>
+      </c>
+      <c r="F10" s="42" t="n">
+        <v>23</v>
+      </c>
+      <c r="G10" s="42" t="n">
+        <v>34</v>
+      </c>
+      <c r="H10" s="42" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" ht="70" customHeight="1">
+      <c r="A11" s="42" t="n"/>
+      <c r="B11" s="42" t="inlineStr">
+        <is>
+          <t>2021/05/04 18:44:09</t>
+        </is>
+      </c>
+      <c r="C11" s="42" t="inlineStr">
+        <is>
+          <t>Carousel</t>
+        </is>
+      </c>
+      <c r="D11" s="42" t="n"/>
+      <c r="E11" s="42" t="inlineStr">
+        <is>
+          <t>Styles are used to change the look of your data while displayed on screen. They are also used to determine the formatting for numbers.</t>
+        </is>
+      </c>
+      <c r="F11" s="42" t="n">
+        <v>23</v>
+      </c>
+      <c r="G11" s="42" t="n">
+        <v>34</v>
+      </c>
+      <c r="H11" s="42" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>※1Thumbnail of movie won't be displayed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="64" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="C15" s="14" t="n"/>
+      <c r="D15" s="15" t="n"/>
+      <c r="E15" s="15" t="n"/>
+      <c r="F15" s="15" t="n"/>
+      <c r="G15" s="15" t="n"/>
+      <c r="H15" s="16" t="n"/>
+    </row>
+    <row r="16">
+      <c r="C16" s="17" t="n"/>
+      <c r="H16" s="18" t="n"/>
+    </row>
+    <row r="17">
+      <c r="C17" s="25" t="n"/>
+      <c r="D17" s="26" t="n"/>
+      <c r="E17" s="26" t="n"/>
+      <c r="F17" s="26" t="n"/>
+      <c r="G17" s="26" t="n"/>
+      <c r="H17" s="27" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C15:H17"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M42"/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
+    <col width="18" customWidth="1" min="10" max="10"/>
+    <col width="18" customWidth="1" min="11" max="11"/>
+    <col width="18" customWidth="1" min="12" max="12"/>
+    <col width="18" customWidth="1" min="13" max="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27" customHeight="1">
+      <c r="A1" s="28" t="inlineStr">
+        <is>
+          <t>#非結核性抗酸菌症</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="n"/>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="55" t="inlineStr">
+        <is>
+          <t>Number of Ranked in</t>
+        </is>
+      </c>
+      <c r="D2" s="55" t="inlineStr">
+        <is>
+          <t>Follower</t>
+        </is>
+      </c>
+      <c r="E2" s="55" t="inlineStr">
+        <is>
+          <t>+/-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="43" t="inlineStr">
+        <is>
+          <t>1 日</t>
+        </is>
+      </c>
+      <c r="B3" s="43" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="43" t="n">
+        <v>1174</v>
+      </c>
+      <c r="E3" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="43" t="inlineStr">
+        <is>
+          <t>2 日</t>
+        </is>
+      </c>
+      <c r="B4" s="43" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C4" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="43" t="n">
+        <v>1160</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="43" t="inlineStr">
+        <is>
+          <t>3 日</t>
+        </is>
+      </c>
+      <c r="B5" s="43" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C5" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="43" t="n">
+        <v>1095</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="43" t="inlineStr">
+        <is>
+          <t>4 日</t>
+        </is>
+      </c>
+      <c r="B6" s="43" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="C6" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="43" t="n">
+        <v>1033</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="43" t="inlineStr">
+        <is>
+          <t>5 日</t>
+        </is>
+      </c>
+      <c r="B7" s="43" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="C7" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="43" t="n">
+        <v>1087</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="43" t="inlineStr">
+        <is>
+          <t>6 日</t>
+        </is>
+      </c>
+      <c r="B8" s="43" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C8" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="43" t="n">
+        <v>1111</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="43" t="inlineStr">
+        <is>
+          <t>7 日</t>
+        </is>
+      </c>
+      <c r="B9" s="43" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C9" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="43" t="n">
+        <v>1071</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="43" t="inlineStr">
+        <is>
+          <t>8 日</t>
+        </is>
+      </c>
+      <c r="B10" s="43" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C10" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="43" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="43" t="inlineStr">
+        <is>
+          <t>9 日</t>
+        </is>
+      </c>
+      <c r="B11" s="43" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C11" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="43" t="n">
+        <v>1170</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="43" t="inlineStr">
+        <is>
+          <t>10 日</t>
+        </is>
+      </c>
+      <c r="B12" s="43" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C12" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="43" t="n">
+        <v>1054</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>-116</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="43" t="inlineStr">
+        <is>
+          <t>11 日</t>
+        </is>
+      </c>
+      <c r="B13" s="43" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="C13" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="43" t="n">
+        <v>1081</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="43" t="inlineStr">
+        <is>
+          <t>12 日</t>
+        </is>
+      </c>
+      <c r="B14" s="43" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="C14" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="43" t="n">
+        <v>1116</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="43" t="inlineStr">
+        <is>
+          <t>13 日</t>
+        </is>
+      </c>
+      <c r="B15" s="43" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C15" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="43" t="n">
+        <v>1196</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="43" t="inlineStr">
+        <is>
+          <t>14 日</t>
+        </is>
+      </c>
+      <c r="B16" s="43" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C16" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="43" t="n">
+        <v>1073</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>-123</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="43" t="inlineStr">
+        <is>
+          <t>15 日</t>
+        </is>
+      </c>
+      <c r="B17" s="43" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C17" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="43" t="n">
+        <v>1096</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="43" t="inlineStr">
+        <is>
+          <t>16 日</t>
+        </is>
+      </c>
+      <c r="B18" s="43" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C18" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="43" t="n">
+        <v>1059</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="43" t="inlineStr">
+        <is>
+          <t>17 日</t>
+        </is>
+      </c>
+      <c r="B19" s="43" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C19" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="43" t="n">
+        <v>1045</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="43" t="inlineStr">
+        <is>
+          <t>18 日</t>
+        </is>
+      </c>
+      <c r="B20" s="43" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="C20" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="43" t="n">
+        <v>1130</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="43" t="inlineStr">
+        <is>
+          <t>19 日</t>
+        </is>
+      </c>
+      <c r="B21" s="43" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="C21" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="43" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>-80</v>
+      </c>
+      <c r="G21" s="56" t="inlineStr">
+        <is>
+          <t>Related Hushtags</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="43" t="inlineStr">
+        <is>
+          <t>20 日</t>
+        </is>
+      </c>
+      <c r="B22" s="43" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C22" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="43" t="n">
+        <v>1180</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>130</v>
+      </c>
+      <c r="G22" s="7" t="n"/>
+      <c r="H22" s="57" t="inlineStr">
+        <is>
+          <t>Hashtag</t>
+        </is>
+      </c>
+      <c r="I22" s="7" t="n"/>
+      <c r="J22" s="57" t="inlineStr">
+        <is>
+          <t>User Rate</t>
+        </is>
+      </c>
+      <c r="K22" s="57" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="L22" s="7" t="n"/>
+      <c r="M22" s="7" t="n"/>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="43" t="inlineStr">
+        <is>
+          <t>21 日</t>
+        </is>
+      </c>
+      <c r="B23" s="43" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C23" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="43" t="n">
+        <v>1114</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>-66</v>
+      </c>
+      <c r="G23" s="7" t="n"/>
+      <c r="H23" s="7" t="n"/>
+      <c r="I23" s="7" t="n"/>
+      <c r="J23" s="7" t="n"/>
+      <c r="K23" s="57" t="inlineStr">
+        <is>
+          <t>Avg. Likes</t>
+        </is>
+      </c>
+      <c r="L23" s="57" t="inlineStr">
+        <is>
+          <t>Avg. Comments</t>
+        </is>
+      </c>
+      <c r="M23" s="57" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="43" t="inlineStr">
+        <is>
+          <t>22 日</t>
+        </is>
+      </c>
+      <c r="B24" s="43" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C24" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="43" t="n">
+        <v>1135</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="G24" s="58" t="inlineStr">
+        <is>
+          <t>No.1</t>
+        </is>
+      </c>
+      <c r="H24" s="7" t="n"/>
+      <c r="I24" s="7" t="n"/>
+      <c r="J24" s="7" t="n"/>
+      <c r="K24" s="7" t="n"/>
+      <c r="L24" s="7" t="n"/>
+      <c r="M24" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="43" t="inlineStr">
+        <is>
+          <t>23 日</t>
+        </is>
+      </c>
+      <c r="B25" s="43" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C25" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="43" t="n">
+        <v>1091</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>-44</v>
+      </c>
+      <c r="G25" s="58" t="inlineStr">
+        <is>
+          <t>No.2</t>
+        </is>
+      </c>
+      <c r="H25" s="7" t="n"/>
+      <c r="I25" s="7" t="n"/>
+      <c r="J25" s="7" t="n"/>
+      <c r="K25" s="7" t="n"/>
+      <c r="L25" s="7" t="n"/>
+      <c r="M25" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="A26" s="43" t="inlineStr">
+        <is>
+          <t>24 日</t>
+        </is>
+      </c>
+      <c r="B26" s="43" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C26" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="43" t="n">
+        <v>1174</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <v>83</v>
+      </c>
+      <c r="G26" s="58" t="inlineStr">
+        <is>
+          <t>No.3</t>
+        </is>
+      </c>
+      <c r="H26" s="7" t="n"/>
+      <c r="I26" s="7" t="n"/>
+      <c r="J26" s="7" t="n"/>
+      <c r="K26" s="7" t="n"/>
+      <c r="L26" s="7" t="n"/>
+      <c r="M26" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="43" t="inlineStr">
+        <is>
+          <t>25 日</t>
+        </is>
+      </c>
+      <c r="B27" s="43" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="C27" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="43" t="n">
+        <v>1131</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>-43</v>
+      </c>
+      <c r="G27" s="58" t="inlineStr">
+        <is>
+          <t>No.4</t>
+        </is>
+      </c>
+      <c r="H27" s="7" t="n"/>
+      <c r="I27" s="7" t="n"/>
+      <c r="J27" s="7" t="n"/>
+      <c r="K27" s="7" t="n"/>
+      <c r="L27" s="7" t="n"/>
+      <c r="M27" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="A28" s="43" t="inlineStr">
+        <is>
+          <t>26 日</t>
+        </is>
+      </c>
+      <c r="B28" s="43" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="C28" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="43" t="n">
+        <v>1197</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <v>66</v>
+      </c>
+      <c r="G28" s="58" t="inlineStr">
+        <is>
+          <t>No.5</t>
+        </is>
+      </c>
+      <c r="H28" s="7" t="n"/>
+      <c r="I28" s="7" t="n"/>
+      <c r="J28" s="7" t="n"/>
+      <c r="K28" s="7" t="n"/>
+      <c r="L28" s="7" t="n"/>
+      <c r="M28" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="A29" s="43" t="inlineStr">
+        <is>
+          <t>27 日</t>
+        </is>
+      </c>
+      <c r="B29" s="43" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C29" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="43" t="n">
+        <v>1056</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <v>-141</v>
+      </c>
+      <c r="G29" s="58" t="inlineStr">
+        <is>
+          <t>No.6</t>
+        </is>
+      </c>
+      <c r="H29" s="7" t="n"/>
+      <c r="I29" s="7" t="n"/>
+      <c r="J29" s="7" t="n"/>
+      <c r="K29" s="7" t="n"/>
+      <c r="L29" s="7" t="n"/>
+      <c r="M29" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="A30" s="43" t="inlineStr">
+        <is>
+          <t>28 日</t>
+        </is>
+      </c>
+      <c r="B30" s="43" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C30" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="43" t="n">
+        <v>1117</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <v>61</v>
+      </c>
+      <c r="G30" s="58" t="inlineStr">
+        <is>
+          <t>No.7</t>
+        </is>
+      </c>
+      <c r="H30" s="7" t="n"/>
+      <c r="I30" s="7" t="n"/>
+      <c r="J30" s="7" t="n"/>
+      <c r="K30" s="7" t="n"/>
+      <c r="L30" s="7" t="n"/>
+      <c r="M30" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" s="43" t="inlineStr">
+        <is>
+          <t>29 日</t>
+        </is>
+      </c>
+      <c r="B31" s="43" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C31" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="43" t="n">
+        <v>1045</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>-72</v>
+      </c>
+      <c r="G31" s="58" t="inlineStr">
+        <is>
+          <t>No.8</t>
+        </is>
+      </c>
+      <c r="H31" s="7" t="n"/>
+      <c r="I31" s="7" t="n"/>
+      <c r="J31" s="7" t="n"/>
+      <c r="K31" s="7" t="n"/>
+      <c r="L31" s="7" t="n"/>
+      <c r="M31" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="18.75" customHeight="1">
+      <c r="A32" s="43" t="inlineStr">
+        <is>
+          <t>30 日</t>
+        </is>
+      </c>
+      <c r="B32" s="43" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C32" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="43" t="n">
+        <v>1180</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <v>135</v>
+      </c>
+      <c r="G32" s="58" t="inlineStr">
+        <is>
+          <t>No.9</t>
+        </is>
+      </c>
+      <c r="H32" s="7" t="n"/>
+      <c r="I32" s="7" t="n"/>
+      <c r="J32" s="7" t="n"/>
+      <c r="K32" s="7" t="n"/>
+      <c r="L32" s="7" t="n"/>
+      <c r="M32" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="A33" s="43" t="inlineStr">
+        <is>
+          <t>31 日</t>
+        </is>
+      </c>
+      <c r="B33" s="43" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C33" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="43" t="n">
+        <v>1170</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <v>-10</v>
+      </c>
+      <c r="G33" s="58" t="inlineStr">
+        <is>
+          <t>No.10</t>
+        </is>
+      </c>
+      <c r="H33" s="7" t="n"/>
+      <c r="I33" s="7" t="n"/>
+      <c r="J33" s="7" t="n"/>
+      <c r="K33" s="7" t="n"/>
+      <c r="L33" s="7" t="n"/>
+      <c r="M33" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="18.75" customHeight="1">
+      <c r="A34" s="7" t="n"/>
+      <c r="B34" s="7" t="n"/>
+      <c r="C34" s="7" t="n"/>
+      <c r="D34" s="7" t="n"/>
+      <c r="E34" s="7" t="n"/>
+    </row>
+    <row r="35" ht="18.75" customHeight="1"/>
+    <row r="36" ht="18.75" customHeight="1">
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>※1　The extracted Related hushtag is most commonly used among popular posts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="18.75" customHeight="1">
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>※2　Used Rate is the rate how often the hushtag is used among popular posts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="18.75" customHeight="1">
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>※3　The ranked in Number is the number your post is ranked in within top100 among pupular posts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="18.75" customHeight="1"/>
+    <row r="40" ht="18.75" customHeight="1">
+      <c r="A40" s="30" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="C40" s="14" t="n"/>
+      <c r="D40" s="15" t="n"/>
+      <c r="E40" s="15" t="n"/>
+      <c r="F40" s="15" t="n"/>
+      <c r="G40" s="15" t="n"/>
+      <c r="H40" s="15" t="n"/>
+      <c r="I40" s="15" t="n"/>
+      <c r="J40" s="15" t="n"/>
+      <c r="K40" s="15" t="n"/>
+      <c r="L40" s="15" t="n"/>
+      <c r="M40" s="16" t="n"/>
+    </row>
+    <row r="41" ht="18.75" customHeight="1">
+      <c r="C41" s="17" t="n"/>
+      <c r="M41" s="18" t="n"/>
+    </row>
+    <row r="42" ht="18.75" customHeight="1">
+      <c r="C42" s="25" t="n"/>
+      <c r="D42" s="26" t="n"/>
+      <c r="E42" s="26" t="n"/>
+      <c r="F42" s="26" t="n"/>
+      <c r="G42" s="26" t="n"/>
+      <c r="H42" s="26" t="n"/>
+      <c r="I42" s="26" t="n"/>
+      <c r="J42" s="26" t="n"/>
+      <c r="K42" s="26" t="n"/>
+      <c r="L42" s="26" t="n"/>
+      <c r="M42" s="27" t="n"/>
+    </row>
+    <row r="43" ht="18.75" customHeight="1"/>
+    <row r="44" ht="18.75" customHeight="1"/>
+    <row r="45" ht="18.75" customHeight="1"/>
+    <row r="46" ht="18.75" customHeight="1"/>
+    <row r="47" ht="18.75" customHeight="1"/>
+    <row r="48" ht="18.75" customHeight="1"/>
+    <row r="49" ht="18.75" customHeight="1"/>
+    <row r="50" ht="18.75" customHeight="1"/>
+    <row r="51" ht="18.75" customHeight="1"/>
+    <row r="52" ht="18.75" customHeight="1"/>
+    <row r="53" ht="18.75" customHeight="1"/>
+    <row r="54" ht="18.75" customHeight="1"/>
+    <row r="55" ht="18.75" customHeight="1"/>
+    <row r="56" ht="18.75" customHeight="1"/>
+    <row r="57" ht="18.75" customHeight="1"/>
+    <row r="58" ht="18.75" customHeight="1"/>
+    <row r="59" ht="18.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="A40:B42"/>
+    <mergeCell ref="C40:M42"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView zoomScale="120" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="65" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="65" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="B1" s="65" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>Number of Follower</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>フォローされているアカウント数</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>Follower (+/-)</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>Number of Follower Changes compared to the day before</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>Number of Website clicks</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>Number of clicks on Profile URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>Profile View</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>Number of time the profile is viewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>Reach</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>Unique Number of the post being displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>Reach Rate</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>Reach Number / Folower Number</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>Impression</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Total Number of times that the post is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>Like!</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Numbeer of Like! On the post</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Numbeer of Comments On the post</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>Number of User account who saved the post</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>Rate	Engagement number / Reach Number</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>Carousel</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Post that contains multiple photos &amp; movies at the same time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView zoomScale="120" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="65" t="inlineStr">
+        <is>
+          <t>Name of Sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="65" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" s="66" t="inlineStr">
+        <is>
+          <t>Cover Page</t>
+        </is>
+      </c>
+      <c r="B2" s="66" t="inlineStr">
+        <is>
+          <t>Cover page of this report</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" s="66" t="inlineStr">
+        <is>
+          <t>Follower Analysis</t>
+        </is>
+      </c>
+      <c r="B3" s="66" t="inlineStr">
+        <is>
+          <t>フォロワーの属性を確認することができます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="66" t="inlineStr">
+        <is>
+          <t>MoM</t>
+        </is>
+      </c>
+      <c r="B4" s="66" t="inlineStr">
+        <is>
+          <t>Month to Month change for past 6 months from the month you pointed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="35" customHeight="1">
+      <c r="A5" s="66" t="inlineStr">
+        <is>
+          <t>DoD</t>
+        </is>
+      </c>
+      <c r="B5" s="66" t="inlineStr">
+        <is>
+          <t>You can check changes on daily basis for Number of follower, increase &amp; decrease 
+ of follower(+/-), Profile View, Website clicks, Reach, Impression.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="66" t="inlineStr">
+        <is>
+          <t>Posts List</t>
+        </is>
+      </c>
+      <c r="B6" s="66" t="inlineStr">
+        <is>
+          <t>You can check detail data of each posts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="35" customHeight="1">
+      <c r="A7" s="66" t="inlineStr">
+        <is>
+          <t>Ads Post List
+※For plan above Plus</t>
+        </is>
+      </c>
+      <c r="B7" s="66" t="inlineStr">
+        <is>
+          <t>You can check the post you made trhough Ads Manager.*</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="66" t="inlineStr">
+        <is>
+          <t>Stories Post List</t>
+        </is>
+      </c>
+      <c r="B8" s="66" t="inlineStr">
+        <is>
+          <t>You can check detail data of each stories.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="66" t="inlineStr">
+        <is>
+          <t>Avg. of each type of Post</t>
+        </is>
+      </c>
+      <c r="B9" s="66" t="inlineStr">
+        <is>
+          <t>You can check the Avg. number of each type of post.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="66" t="inlineStr">
+        <is>
+          <t>Post - Engagement Top&amp;Worst3</t>
+        </is>
+      </c>
+      <c r="B10" s="66" t="inlineStr">
+        <is>
+          <t>You can check Top3 &amp; Worst3 Engament number of post in Ranking format.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="35" customHeight="1">
+      <c r="A11" s="66" t="inlineStr">
+        <is>
+          <t>Stories - Impression TOP&amp;WORST3</t>
+        </is>
+      </c>
+      <c r="B11" s="66" t="inlineStr">
+        <is>
+          <t>You can check Top3 &amp; Worst3 Impression of Stories in Ranking format.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="35" customHeight="1">
+      <c r="A12" s="66" t="inlineStr">
+        <is>
+          <t>Mention Ranking
+※Only for plan above Basic</t>
+        </is>
+      </c>
+      <c r="B12" s="66" t="inlineStr">
+        <is>
+          <t>メンション・タグ付けをされたユーザーのランキングとそのメンション
+数を確認することができます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="35" customHeight="1">
+      <c r="A13" s="66" t="inlineStr">
+        <is>
+          <t>Competitor Comparison
+※Only for plan above Basic</t>
+        </is>
+      </c>
+      <c r="B13" s="66" t="inlineStr">
+        <is>
+          <t>You can check number of follower and post dates of your competitors by comparing to 
+ your account.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="35" customHeight="1">
+      <c r="A14" s="66" t="inlineStr">
+        <is>
+          <t>Competitor Engagement TOP&amp;WORST3
+※Only for plan above Basic</t>
+        </is>
+      </c>
+      <c r="B14" s="66" t="inlineStr">
+        <is>
+          <t>You can check Top3 &amp; Worst3 Engagement number of post of competitor.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="88" customHeight="1">
+      <c r="A15" s="66" t="inlineStr">
+        <is>
+          <t>Hushtag Analysis
+※Only for plan above Plus</t>
+        </is>
+      </c>
+      <c r="B15" s="66" t="inlineStr">
+        <is>
+          <t>You can check the related hushtag and if the hushtag is used on the popular post. You can 
+ analyize if the hushtag is effective or not.
+※Popular posts are optimized for each user, therefore this report result might be 
+different from the one you see on your app.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="72" customHeight="1">
+      <c r="A16" s="66" t="inlineStr">
+        <is>
+          <t>Ranked in Hushtag
+※Only for plan above Basic</t>
+        </is>
+      </c>
+      <c r="B16" s="66" t="inlineStr">
+        <is>
+          <t>You can check the detail of the post that is listed on Popular post.
+※Popular posts are optimized for each user, therefore this report result might be 
+ different from the one you see on your app.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="18" customHeight="1">
+      <c r="A17" s="66" t="inlineStr">
+        <is>
+          <t>Word Description</t>
+        </is>
+      </c>
+      <c r="B17" s="66" t="inlineStr">
+        <is>
+          <t>Description of words used in this report.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>※The figure of advertisement can only be available on DoD and Ads Post List.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
